--- a/gameserver/src/main/resources/gameData/roleProperty.xlsx
+++ b/gameserver/src/main/resources/gameData/roleProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16535" windowHeight="9024"/>
+    <workbookView windowWidth="16535" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>ID</t>
   </si>
@@ -24,13 +24,22 @@
     <t>属性名</t>
   </si>
   <si>
-    <t>属性值</t>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>标准属性值</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>属性描述</t>
   </si>
   <si>
     <t>基础HP</t>
+  </si>
+  <si>
+    <t>基础属性</t>
+  </si>
+  <si>
+    <t>角色基础属性</t>
   </si>
   <si>
     <t>基础MP</t>
@@ -60,11 +69,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,29 +82,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +127,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -124,31 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +181,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -171,60 +220,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,7 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,224 +415,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,17 +440,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +459,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,11 +501,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,142 +546,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1050,141 +1028,170 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/roleProperty.xlsx
+++ b/gameserver/src/main/resources/gameData/roleProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16535" windowHeight="8460"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>ID</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>基础HP</t>
-  </si>
-  <si>
-    <t>基础属性</t>
-  </si>
-  <si>
-    <t>角色基础属性</t>
   </si>
   <si>
     <t>基础MP</t>
@@ -68,8 +62,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -96,9 +90,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,7 +122,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,98 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +423,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,24 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -497,6 +467,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +503,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,145 +528,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1068,130 +1062,106 @@
       <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/roleProperty.xlsx
+++ b/gameserver/src/main/resources/gameData/roleProperty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>ID</t>
   </si>
@@ -50,12 +50,6 @@
   <si>
     <t>基础智力</t>
   </si>
-  <si>
-    <t>基础耐力</t>
-  </si>
-  <si>
-    <t>基础敏捷</t>
-  </si>
 </sst>
 </file>
 
@@ -83,6 +77,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -90,47 +106,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,16 +137,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,36 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,8 +176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +193,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,49 +223,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,49 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,79 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +414,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,69 +506,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,145 +522,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
@@ -1133,34 +1127,6 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
         <v>1</v>
       </c>
     </row>

--- a/gameserver/src/main/resources/gameData/roleProperty.xlsx
+++ b/gameserver/src/main/resources/gameData/roleProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>ID</t>
   </si>
@@ -39,16 +39,22 @@
     <t>基础MP</t>
   </si>
   <si>
-    <t>基础防御</t>
-  </si>
-  <si>
-    <t>基础攻击力</t>
-  </si>
-  <si>
-    <t>基础力量</t>
-  </si>
-  <si>
-    <t>基础智力</t>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>一点基础攻击力等于一点战力</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>五点点力量等一点战力</t>
+  </si>
+  <si>
+    <t>智力</t>
   </si>
 </sst>
 </file>
@@ -70,6 +76,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -77,53 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,8 +106,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -147,9 +154,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,17 +175,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,29 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,85 +229,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,91 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,17 +423,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,6 +443,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,39 +481,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -514,6 +511,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,34 +540,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,97 +576,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,14 +1025,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:5">
@@ -1088,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1101,19 +1107,25 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1121,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>100</v>

--- a/gameserver/src/main/resources/gameData/roleProperty.xlsx
+++ b/gameserver/src/main/resources/gameData/roleProperty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>智力</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>魔法抗性</t>
+  </si>
+  <si>
+    <t>耐力</t>
   </si>
 </sst>
 </file>
@@ -64,8 +76,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,9 +88,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,6 +120,51 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,8 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,30 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,62 +202,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,67 +241,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,115 +385,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,41 +465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +500,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -528,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
@@ -1091,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1105,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1122,7 +1134,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1139,7 +1151,63 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/roleProperty.xlsx
+++ b/gameserver/src/main/resources/gameData/roleProperty.xlsx
@@ -51,7 +51,7 @@
     <t>力量</t>
   </si>
   <si>
-    <t>五点点力量等一点战力</t>
+    <t>五点力量等一点战力</t>
   </si>
   <si>
     <t>智力</t>
@@ -76,13 +76,65 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,66 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +187,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,22 +210,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,49 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,30 +524,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -499,39 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
